--- a/manager_A.xlsx
+++ b/manager_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,11 +509,6 @@
           <t>m/min</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -563,7 +558,6 @@
       <c r="O2" t="n">
         <v>25.7</v>
       </c>
-      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -613,9 +607,6 @@
       <c r="O3" t="n">
         <v>25</v>
       </c>
-      <c r="P3" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -663,9 +654,6 @@
       <c r="O4" t="n">
         <v>25.13</v>
       </c>
-      <c r="P4" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -715,9 +703,6 @@
       <c r="O5" t="n">
         <v>25.38</v>
       </c>
-      <c r="P5" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -767,9 +752,6 @@
       <c r="O6" t="n">
         <v>25.17</v>
       </c>
-      <c r="P6" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -819,9 +801,6 @@
       <c r="O7" t="n">
         <v>26.36</v>
       </c>
-      <c r="P7" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -871,9 +850,6 @@
       <c r="O8" t="n">
         <v>25.47</v>
       </c>
-      <c r="P8" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -923,9 +899,6 @@
       <c r="O9" t="n">
         <v>25.64</v>
       </c>
-      <c r="P9" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -975,9 +948,6 @@
       <c r="O10" t="n">
         <v>31.27</v>
       </c>
-      <c r="P10" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1027,9 +997,6 @@
       <c r="O11" t="n">
         <v>30.77</v>
       </c>
-      <c r="P11" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1079,9 +1046,6 @@
       <c r="O12" t="n">
         <v>31.17</v>
       </c>
-      <c r="P12" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1131,9 +1095,6 @@
       <c r="O13" t="n">
         <v>30.88</v>
       </c>
-      <c r="P13" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1181,9 +1142,6 @@
       <c r="O14" t="n">
         <v>31.01</v>
       </c>
-      <c r="P14" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1233,9 +1191,6 @@
       <c r="O15" t="n">
         <v>24.88</v>
       </c>
-      <c r="P15" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1285,9 +1240,6 @@
       <c r="O16" t="n">
         <v>24.77</v>
       </c>
-      <c r="P16" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1337,9 +1289,6 @@
       <c r="O17" t="n">
         <v>24.87</v>
       </c>
-      <c r="P17" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1389,9 +1338,6 @@
       <c r="O18" t="n">
         <v>25.1</v>
       </c>
-      <c r="P18" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1441,9 +1387,6 @@
       <c r="O19" t="n">
         <v>24.88</v>
       </c>
-      <c r="P19" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1493,9 +1436,6 @@
       <c r="O20" t="n">
         <v>25.24</v>
       </c>
-      <c r="P20" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,9 +1485,6 @@
       <c r="O21" t="n">
         <v>25.04</v>
       </c>
-      <c r="P21" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1597,9 +1534,6 @@
       <c r="O22" t="n">
         <v>25.4</v>
       </c>
-      <c r="P22" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1649,9 +1583,6 @@
       <c r="O23" t="n">
         <v>25.57</v>
       </c>
-      <c r="P23" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1701,9 +1632,6 @@
       <c r="O24" t="n">
         <v>26.24</v>
       </c>
-      <c r="P24" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1753,7 +1681,6 @@
       <c r="O25" t="n">
         <v>26.37</v>
       </c>
-      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1801,7 +1728,6 @@
       <c r="O26" t="n">
         <v>21.49</v>
       </c>
-      <c r="P26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/manager_A.xlsx
+++ b/manager_A.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>M/c No.</t>
+  </si>
+  <si>
+    <t>Count and Material</t>
+  </si>
+  <si>
+    <t>AEF %</t>
+  </si>
+  <si>
+    <t>% loss normal eb</t>
+  </si>
+  <si>
+    <t>stop %</t>
+  </si>
+  <si>
+    <t>% loss idle</t>
+  </si>
+  <si>
+    <t>Doffing %</t>
+  </si>
+  <si>
+    <t>min/doff</t>
+  </si>
+  <si>
+    <t>rogue %   (b&gt;l)</t>
+  </si>
+  <si>
+    <t>Rogues (b&gt;l)</t>
+  </si>
+  <si>
+    <t>Total M/c Stop time</t>
+  </si>
+  <si>
+    <t>eb total</t>
+  </si>
+  <si>
+    <t>eb idle</t>
+  </si>
+  <si>
+    <t>doffs</t>
+  </si>
+  <si>
+    <t>m/min</t>
+  </si>
+  <si>
+    <t>20.0 lbs-20/1 lbs CRT</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,87 +418,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>M/c No.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Count and Material</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>V ry</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Power Factor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Curr_R</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>min/doff</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (Hz)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>doff min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>doffs</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>m/min</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>stop min</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kWh</t>
-        </is>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>68.41</v>
+      </c>
+      <c r="D2">
+        <v>0.32</v>
+      </c>
+      <c r="E2">
+        <v>15.46</v>
+      </c>
+      <c r="F2">
+        <v>2.03</v>
+      </c>
+      <c r="G2">
+        <v>13.63</v>
+      </c>
+      <c r="H2">
+        <v>5.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L2">
+        <v>148</v>
+      </c>
+      <c r="M2">
+        <v>61</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>0.28</v>
+      </c>
+      <c r="E3">
+        <v>17.51</v>
+      </c>
+      <c r="F3">
+        <v>3.4</v>
+      </c>
+      <c r="G3">
+        <v>7.69</v>
+      </c>
+      <c r="H3">
+        <v>2.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>85.7</v>
+      </c>
+      <c r="L3">
+        <v>176</v>
+      </c>
+      <c r="M3">
+        <v>97</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>27.49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>